--- a/SORT PIVOT AND TRANSFORM DATA IN EXCEL/Summarizing-Numeric-Data (2).xlsx
+++ b/SORT PIVOT AND TRANSFORM DATA IN EXCEL/Summarizing-Numeric-Data (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODECADEMY 2024\EXCEL BASICS\SORT PIVOT AND TRANSFORM DATA IN EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738F0F24-5C5A-4142-A305-CDFA4A709F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEAFBAB-D973-4C80-AAA5-CC420EC82339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{68F7FAD6-8A2E-49E2-A071-E84BD7309900}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Year </t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>Min:</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36709CF9-64BB-4441-9E58-6DDADC910171}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,63 +435,90 @@
     <col min="2" max="2" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
       <c r="B2">
         <v>7639</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <f>B2/B$11</f>
+        <v>0.18682286189439704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
       <c r="B3">
         <v>7899</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <f t="shared" ref="C3:C7" si="0">B3/B$11</f>
+        <v>0.19318154026755363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
       <c r="B4">
         <v>7131</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.17439898261146031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
       <c r="B5">
         <v>6979</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.17068160140869182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
       <c r="B6">
         <v>5962</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.14580938638753699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
       <c r="B7">
         <v>5279</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.12910562743036025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -494,7 +527,7 @@
         <v>6814.833333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -503,13 +536,22 @@
         <v>7899</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10">
         <f>MIN(B2:B9)</f>
         <v>5279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B2:B7)</f>
+        <v>40889</v>
       </c>
     </row>
   </sheetData>
